--- a/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
@@ -1,144 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>150103</t>
-  </si>
-  <si>
-    <t>519672</t>
-  </si>
-  <si>
-    <t>151001</t>
-  </si>
-  <si>
-    <t>519668</t>
-  </si>
-  <si>
-    <t>银河银泰混合</t>
-  </si>
-  <si>
-    <t>银河蓝筹混合</t>
-  </si>
-  <si>
-    <t>银河稳健混合</t>
-  </si>
-  <si>
-    <t>银河竞争优势成长混合</t>
-  </si>
-  <si>
-    <t>15.83</t>
-  </si>
-  <si>
-    <t>10.59</t>
-  </si>
-  <si>
-    <t>11.21</t>
-  </si>
-  <si>
-    <t>2.77</t>
-  </si>
-  <si>
-    <t>79.47</t>
-  </si>
-  <si>
-    <t>94.37</t>
-  </si>
-  <si>
-    <t>74.80</t>
-  </si>
-  <si>
-    <t>88.31</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>4.92</t>
-  </si>
-  <si>
-    <t>0.6490</t>
-  </si>
-  <si>
-    <t>0.3812</t>
-  </si>
-  <si>
-    <t>0.2859</t>
-  </si>
-  <si>
-    <t>0.1363</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,141 +446,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,673 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.05</v>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1371,13 +1414,651 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.96</v>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.05</v>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2052,13 +2117,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,205 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>150103</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河银泰混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6490</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519672</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3812</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.96</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>151001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河稳健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2859</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519668</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河竞争优势成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1363</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -662,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>150103</t>
+          <t>519627</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河银泰混合</t>
+          <t>银河君润灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.12</t>
+          <t>24.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7783</t>
+          <t>0.0754</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -751,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>008709</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>银河龙头精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3778</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -789,530 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519679</t>
+          <t>519628</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河主题混合</t>
+          <t>银河君润灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>24.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>151001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河稳健混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2826</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2326</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1805</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002935</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1678</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519668</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银河竞争优势成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1425</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>27.60</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1202</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519627</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河君润灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1188</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519642</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河大国智造主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1016</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005211</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河智慧主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0981</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002934</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>28.02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0934</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008709</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银河龙头精选股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0473</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008481</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519628</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银河君润灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>21.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1990,7 +1388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2041,36 +1439,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519627</t>
+          <t>150103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河君润灵活配置混合A</t>
+          <t>银河银泰混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.14</t>
+          <t>79.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0754</t>
+          <t>0.7783</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2079,36 +1477,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008709</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河龙头精选股票</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.3778</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2117,36 +1515,530 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>519628</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>银河君润灵活配置混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2160,96 +2052,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.45</v>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.96</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.45</v>
       </c>
     </row>
@@ -549,6 +566,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -710,670 +1237,6 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>150103</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河银泰混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6450</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3476</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519679</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3335</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2849</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>151001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河稳健混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>72.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2442</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1902</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1902</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001306</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧永裕混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1474</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007203</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河新动能混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1373</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1271</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519668</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河竞争优势成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0994</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519642</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河大国智造主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0982</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.19</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008709</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银河龙头精选股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.33</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1454,21 +1317,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.12</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7783</t>
+          <t>0.6450</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1477,36 +1340,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>519670</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>银河行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>80.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3778</t>
+          <t>0.3476</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1530,21 +1393,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>90.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.3335</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1553,36 +1416,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>151001</t>
+          <t>005823</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河稳健混合</t>
+          <t>泰康颐享混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>14.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.69</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2826</t>
+          <t>0.2849</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1591,36 +1454,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005823</t>
+          <t>151001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康颐享混合A</t>
+          <t>银河稳健混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.60</t>
+          <t>72.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2326</t>
+          <t>0.2442</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1629,32 +1492,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009490</t>
+          <t>166011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康科技创新一年定期开放混合</t>
+          <t>中欧盛世成长混合 (LOF) -A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.28</t>
+          <t>85.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1805</t>
+          <t>0.1902</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1667,36 +1530,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002935</t>
+          <t>001888</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
+          <t>中欧盛世成长混合 (LOF) -E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>85.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1678</t>
+          <t>0.1902</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1705,36 +1568,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519668</t>
+          <t>001306</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河竞争优势成长混合</t>
+          <t>中欧永裕混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>86.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1425</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1743,36 +1606,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005824</t>
+          <t>007203</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康颐享混合C</t>
+          <t>银河新动能混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27.60</t>
+          <t>89.54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1202</t>
+          <t>0.1373</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1781,36 +1644,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519627</t>
+          <t>009490</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银河君润灵活配置混合A</t>
+          <t>泰康科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.29</t>
+          <t>79.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1188</t>
+          <t>0.1271</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1819,36 +1682,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519642</t>
+          <t>519668</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银河大国智造主题灵活配置混合</t>
+          <t>银河竞争优势成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.0994</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1857,32 +1720,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005211</t>
+          <t>519642</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银河智慧主题灵活配置混合</t>
+          <t>银河大国智造主题灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0981</t>
+          <t>0.0982</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1895,36 +1758,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002934</t>
+          <t>005824</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
+          <t>泰康颐享混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0934</t>
+          <t>0.0558</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1943,26 +1806,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1971,36 +1834,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>004233</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>中欧盛世成长混合 (LOF) -C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>85.98</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2009,36 +1872,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>519628</t>
+          <t>001307</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银河君润灵活配置混合C</t>
+          <t>中欧永裕混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.29</t>
+          <t>86.33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2047,6 +1910,670 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603105-芯能科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>1.92</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.96</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.45</v>
       </c>
     </row>
@@ -566,6 +583,966 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7901</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016590</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河收益混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016591</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014556</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>850007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>850788</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014557</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016982</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>850799</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1075,7 +2052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1237,670 +2214,6 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>150103</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河银泰混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6450</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3476</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519679</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3335</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2849</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>151001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河稳健混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>72.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2442</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1902</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1902</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001306</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧永裕混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1474</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007203</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河新动能混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1373</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1271</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519668</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河竞争优势成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0994</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519642</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河大国智造主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0982</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.19</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008709</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银河龙头精选股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.33</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1981,21 +2294,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.12</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7783</t>
+          <t>0.6450</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2004,36 +2317,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>519670</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>银河行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>80.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3778</t>
+          <t>0.3476</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2057,21 +2370,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>90.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2949</t>
+          <t>0.3335</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2080,36 +2393,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>151001</t>
+          <t>005823</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河稳健混合</t>
+          <t>泰康颐享混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>14.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.69</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2826</t>
+          <t>0.2849</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2118,36 +2431,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005823</t>
+          <t>151001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康颐享混合A</t>
+          <t>银河稳健混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.60</t>
+          <t>72.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2326</t>
+          <t>0.2442</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2156,32 +2469,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009490</t>
+          <t>166011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康科技创新一年定期开放混合</t>
+          <t>中欧盛世成长混合 (LOF) -A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.28</t>
+          <t>85.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1805</t>
+          <t>0.1902</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2194,36 +2507,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002935</t>
+          <t>001888</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
+          <t>中欧盛世成长混合 (LOF) -E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>85.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1678</t>
+          <t>0.1902</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2232,36 +2545,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519668</t>
+          <t>001306</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河竞争优势成长混合</t>
+          <t>中欧永裕混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>86.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1425</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2270,36 +2583,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005824</t>
+          <t>007203</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康颐享混合C</t>
+          <t>银河新动能混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27.60</t>
+          <t>89.54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1202</t>
+          <t>0.1373</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2308,36 +2621,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519627</t>
+          <t>009490</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银河君润灵活配置混合A</t>
+          <t>泰康科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.29</t>
+          <t>79.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1188</t>
+          <t>0.1271</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2346,36 +2659,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519642</t>
+          <t>519668</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银河大国智造主题灵活配置混合</t>
+          <t>银河竞争优势成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.0994</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2384,32 +2697,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005211</t>
+          <t>519642</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银河智慧主题灵活配置混合</t>
+          <t>银河大国智造主题灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0981</t>
+          <t>0.0982</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2422,36 +2735,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002934</t>
+          <t>005824</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
+          <t>泰康颐享混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0934</t>
+          <t>0.0558</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2470,26 +2783,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2498,36 +2811,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>004233</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>中欧盛世成长混合 (LOF) -C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>85.98</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2536,36 +2849,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>519628</t>
+          <t>001307</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银河君润灵活配置混合C</t>
+          <t>中欧永裕混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.29</t>
+          <t>86.33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2574,6 +2887,670 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
